--- a/data/enterprise-attack-v15.1-datasources.xlsx
+++ b/data/enterprise-attack-v15.1-datasources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\ryuichi\work\miter_attack_db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD334BA-6878-4091-8F57-6A8C1C8014E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2456E5-F61D-4002-8ED2-974BB5D616BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-86520" yWindow="7980" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="797">
   <si>
     <t>name</t>
   </si>
@@ -2508,16 +2508,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2825,17 +2821,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.375" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="188" customWidth="1"/>
+    <col min="3" max="3" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="13.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="42" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2843,10 +2839,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>795</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2884,7 +2880,7 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>155</v>
       </c>
       <c r="C2" t="s">
@@ -2922,7 +2918,6 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3"/>
       <c r="C3" t="s">
         <v>688</v>
       </c>
@@ -2931,6 +2926,9 @@
       </c>
       <c r="E3" t="s">
         <v>336</v>
+      </c>
+      <c r="F3" t="s">
+        <v>478</v>
       </c>
       <c r="H3" t="s">
         <v>504</v>
@@ -2946,7 +2944,6 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>689</v>
       </c>
@@ -2955,6 +2952,9 @@
       </c>
       <c r="E4" t="s">
         <v>337</v>
+      </c>
+      <c r="F4" t="s">
+        <v>478</v>
       </c>
       <c r="H4" t="s">
         <v>504</v>
@@ -2970,7 +2970,6 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3"/>
       <c r="C5" t="s">
         <v>690</v>
       </c>
@@ -2979,6 +2978,9 @@
       </c>
       <c r="E5" t="s">
         <v>338</v>
+      </c>
+      <c r="F5" t="s">
+        <v>478</v>
       </c>
       <c r="H5" t="s">
         <v>504</v>
@@ -2994,7 +2996,6 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3"/>
       <c r="C6" t="s">
         <v>691</v>
       </c>
@@ -3003,6 +3004,9 @@
       </c>
       <c r="E6" t="s">
         <v>339</v>
+      </c>
+      <c r="F6" t="s">
+        <v>478</v>
       </c>
       <c r="H6" t="s">
         <v>504</v>
@@ -3018,7 +3022,6 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3"/>
       <c r="C7" t="s">
         <v>692</v>
       </c>
@@ -3027,6 +3030,9 @@
       </c>
       <c r="E7" t="s">
         <v>340</v>
+      </c>
+      <c r="F7" t="s">
+        <v>478</v>
       </c>
       <c r="H7" t="s">
         <v>504</v>
@@ -3042,7 +3048,7 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>156</v>
       </c>
       <c r="C8" t="s">
@@ -3077,7 +3083,6 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3"/>
       <c r="C9" t="s">
         <v>693</v>
       </c>
@@ -3086,6 +3091,9 @@
       </c>
       <c r="E9" t="s">
         <v>342</v>
+      </c>
+      <c r="F9" t="s">
+        <v>478</v>
       </c>
       <c r="H9" t="s">
         <v>504</v>
@@ -3101,7 +3109,7 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>157</v>
       </c>
       <c r="C10" t="s">
@@ -3136,7 +3144,6 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>694</v>
       </c>
@@ -3145,6 +3152,9 @@
       </c>
       <c r="E11" t="s">
         <v>344</v>
+      </c>
+      <c r="F11" t="s">
+        <v>479</v>
       </c>
       <c r="H11" t="s">
         <v>504</v>
@@ -3160,7 +3170,7 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>158</v>
       </c>
       <c r="C12" t="s">
@@ -3198,7 +3208,6 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>695</v>
       </c>
@@ -3207,6 +3216,9 @@
       </c>
       <c r="E13" t="s">
         <v>346</v>
+      </c>
+      <c r="F13" t="s">
+        <v>480</v>
       </c>
       <c r="H13" t="s">
         <v>504</v>
@@ -3222,7 +3234,6 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>696</v>
       </c>
@@ -3231,6 +3242,9 @@
       </c>
       <c r="E14" t="s">
         <v>347</v>
+      </c>
+      <c r="F14" t="s">
+        <v>480</v>
       </c>
       <c r="H14" t="s">
         <v>504</v>
@@ -3246,7 +3260,6 @@
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>697</v>
       </c>
@@ -3255,6 +3268,9 @@
       </c>
       <c r="E15" t="s">
         <v>348</v>
+      </c>
+      <c r="F15" t="s">
+        <v>480</v>
       </c>
       <c r="H15" t="s">
         <v>504</v>
@@ -3270,7 +3286,6 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>698</v>
       </c>
@@ -3279,6 +3294,9 @@
       </c>
       <c r="E16" t="s">
         <v>349</v>
+      </c>
+      <c r="F16" t="s">
+        <v>480</v>
       </c>
       <c r="H16" t="s">
         <v>504</v>
@@ -3294,7 +3312,7 @@
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>159</v>
       </c>
       <c r="C17" t="s">
@@ -3332,7 +3350,6 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>699</v>
       </c>
@@ -3341,6 +3358,9 @@
       </c>
       <c r="E18" t="s">
         <v>351</v>
+      </c>
+      <c r="F18" t="s">
+        <v>480</v>
       </c>
       <c r="H18" t="s">
         <v>504</v>
@@ -3356,7 +3376,6 @@
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>700</v>
       </c>
@@ -3365,6 +3384,9 @@
       </c>
       <c r="E19" t="s">
         <v>352</v>
+      </c>
+      <c r="F19" t="s">
+        <v>480</v>
       </c>
       <c r="H19" t="s">
         <v>504</v>
@@ -3380,7 +3402,6 @@
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3"/>
       <c r="C20" t="s">
         <v>701</v>
       </c>
@@ -3389,6 +3410,9 @@
       </c>
       <c r="E20" t="s">
         <v>353</v>
+      </c>
+      <c r="F20" t="s">
+        <v>480</v>
       </c>
       <c r="H20" t="s">
         <v>504</v>
@@ -3404,7 +3428,6 @@
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="3"/>
       <c r="C21" t="s">
         <v>702</v>
       </c>
@@ -3413,6 +3436,9 @@
       </c>
       <c r="E21" t="s">
         <v>354</v>
+      </c>
+      <c r="F21" t="s">
+        <v>480</v>
       </c>
       <c r="H21" t="s">
         <v>504</v>
@@ -3428,7 +3454,6 @@
       <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>703</v>
       </c>
@@ -3437,6 +3462,9 @@
       </c>
       <c r="E22" t="s">
         <v>355</v>
+      </c>
+      <c r="F22" t="s">
+        <v>480</v>
       </c>
       <c r="H22" t="s">
         <v>504</v>
@@ -3452,7 +3480,6 @@
       <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="3"/>
       <c r="C23" t="s">
         <v>704</v>
       </c>
@@ -3461,6 +3488,9 @@
       </c>
       <c r="E23" t="s">
         <v>356</v>
+      </c>
+      <c r="F23" t="s">
+        <v>480</v>
       </c>
       <c r="H23" t="s">
         <v>504</v>
@@ -3476,7 +3506,7 @@
       <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>160</v>
       </c>
       <c r="C24" t="s">
@@ -3514,7 +3544,6 @@
       <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>705</v>
       </c>
@@ -3523,6 +3552,9 @@
       </c>
       <c r="E25" t="s">
         <v>358</v>
+      </c>
+      <c r="F25" t="s">
+        <v>481</v>
       </c>
       <c r="H25" t="s">
         <v>504</v>
@@ -3538,7 +3570,7 @@
       <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>161</v>
       </c>
       <c r="C26" t="s">
@@ -3576,7 +3608,6 @@
       <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="3"/>
       <c r="C27" t="s">
         <v>706</v>
       </c>
@@ -3585,6 +3616,9 @@
       </c>
       <c r="E27" t="s">
         <v>360</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
       </c>
       <c r="H27" t="s">
         <v>504</v>
@@ -3600,7 +3634,6 @@
       <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="3"/>
       <c r="C28" t="s">
         <v>707</v>
       </c>
@@ -3609,6 +3642,9 @@
       </c>
       <c r="E28" t="s">
         <v>361</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
       </c>
       <c r="H28" t="s">
         <v>504</v>
@@ -3624,7 +3660,6 @@
       <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>708</v>
       </c>
@@ -3633,6 +3668,9 @@
       </c>
       <c r="E29" t="s">
         <v>362</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
       </c>
       <c r="H29" t="s">
         <v>504</v>
@@ -3648,7 +3686,7 @@
       <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>162</v>
       </c>
       <c r="C30" t="s">
@@ -3683,7 +3721,6 @@
       <c r="A31" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>709</v>
       </c>
@@ -3692,6 +3729,9 @@
       </c>
       <c r="E31" t="s">
         <v>364</v>
+      </c>
+      <c r="F31" t="s">
+        <v>479</v>
       </c>
       <c r="H31" t="s">
         <v>504</v>
@@ -3707,7 +3747,6 @@
       <c r="A32" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="3"/>
       <c r="C32" t="s">
         <v>710</v>
       </c>
@@ -3716,6 +3755,9 @@
       </c>
       <c r="E32" t="s">
         <v>365</v>
+      </c>
+      <c r="F32" t="s">
+        <v>479</v>
       </c>
       <c r="H32" t="s">
         <v>504</v>
@@ -3731,7 +3773,6 @@
       <c r="A33" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="3"/>
       <c r="C33" t="s">
         <v>711</v>
       </c>
@@ -3740,6 +3781,9 @@
       </c>
       <c r="E33" t="s">
         <v>366</v>
+      </c>
+      <c r="F33" t="s">
+        <v>479</v>
       </c>
       <c r="H33" t="s">
         <v>504</v>
@@ -3755,7 +3799,7 @@
       <c r="A34" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>163</v>
       </c>
       <c r="C34" t="s">
@@ -3793,7 +3837,6 @@
       <c r="A35" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="3"/>
       <c r="C35" t="s">
         <v>712</v>
       </c>
@@ -3802,6 +3845,9 @@
       </c>
       <c r="E35" t="s">
         <v>368</v>
+      </c>
+      <c r="F35" t="s">
+        <v>482</v>
       </c>
       <c r="H35" t="s">
         <v>504</v>
@@ -3817,7 +3863,6 @@
       <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="3"/>
       <c r="C36" t="s">
         <v>713</v>
       </c>
@@ -3826,6 +3871,9 @@
       </c>
       <c r="E36" t="s">
         <v>369</v>
+      </c>
+      <c r="F36" t="s">
+        <v>482</v>
       </c>
       <c r="H36" t="s">
         <v>504</v>
@@ -3841,7 +3889,6 @@
       <c r="A37" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="3"/>
       <c r="C37" t="s">
         <v>714</v>
       </c>
@@ -3850,6 +3897,9 @@
       </c>
       <c r="E37" t="s">
         <v>370</v>
+      </c>
+      <c r="F37" t="s">
+        <v>482</v>
       </c>
       <c r="H37" t="s">
         <v>504</v>
@@ -3865,7 +3915,7 @@
       <c r="A38" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>164</v>
       </c>
       <c r="C38" t="s">
@@ -3903,7 +3953,6 @@
       <c r="A39" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="3"/>
       <c r="C39" t="s">
         <v>715</v>
       </c>
@@ -3912,6 +3961,9 @@
       </c>
       <c r="E39" t="s">
         <v>372</v>
+      </c>
+      <c r="F39" t="s">
+        <v>482</v>
       </c>
       <c r="H39" t="s">
         <v>504</v>
@@ -3927,7 +3979,6 @@
       <c r="A40" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="3"/>
       <c r="C40" t="s">
         <v>716</v>
       </c>
@@ -3936,6 +3987,9 @@
       </c>
       <c r="E40" t="s">
         <v>373</v>
+      </c>
+      <c r="F40" t="s">
+        <v>482</v>
       </c>
       <c r="H40" t="s">
         <v>504</v>
@@ -3951,7 +4005,7 @@
       <c r="A41" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>165</v>
       </c>
       <c r="C41" t="s">
@@ -3989,7 +4043,6 @@
       <c r="A42" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="3"/>
       <c r="C42" t="s">
         <v>717</v>
       </c>
@@ -3998,6 +4051,9 @@
       </c>
       <c r="E42" t="s">
         <v>375</v>
+      </c>
+      <c r="F42" t="s">
+        <v>482</v>
       </c>
       <c r="H42" t="s">
         <v>504</v>
@@ -4013,7 +4069,6 @@
       <c r="A43" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="3"/>
       <c r="C43" t="s">
         <v>718</v>
       </c>
@@ -4022,6 +4077,9 @@
       </c>
       <c r="E43" t="s">
         <v>376</v>
+      </c>
+      <c r="F43" t="s">
+        <v>482</v>
       </c>
       <c r="H43" t="s">
         <v>504</v>
@@ -4037,7 +4095,6 @@
       <c r="A44" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="3"/>
       <c r="C44" t="s">
         <v>719</v>
       </c>
@@ -4046,6 +4103,9 @@
       </c>
       <c r="E44" t="s">
         <v>377</v>
+      </c>
+      <c r="F44" t="s">
+        <v>482</v>
       </c>
       <c r="H44" t="s">
         <v>504</v>
@@ -4061,7 +4121,6 @@
       <c r="A45" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="3"/>
       <c r="C45" t="s">
         <v>720</v>
       </c>
@@ -4070,6 +4129,9 @@
       </c>
       <c r="E45" t="s">
         <v>378</v>
+      </c>
+      <c r="F45" t="s">
+        <v>482</v>
       </c>
       <c r="H45" t="s">
         <v>504</v>
@@ -4085,7 +4147,6 @@
       <c r="A46" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="3"/>
       <c r="C46" t="s">
         <v>721</v>
       </c>
@@ -4094,6 +4155,9 @@
       </c>
       <c r="E46" t="s">
         <v>379</v>
+      </c>
+      <c r="F46" t="s">
+        <v>482</v>
       </c>
       <c r="H46" t="s">
         <v>504</v>
@@ -4109,7 +4173,7 @@
       <c r="A47" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>166</v>
       </c>
       <c r="C47" t="s">
@@ -4147,7 +4211,6 @@
       <c r="A48" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="3"/>
       <c r="C48" t="s">
         <v>722</v>
       </c>
@@ -4156,6 +4219,9 @@
       </c>
       <c r="E48" t="s">
         <v>381</v>
+      </c>
+      <c r="F48" t="s">
+        <v>478</v>
       </c>
       <c r="H48" t="s">
         <v>504</v>
@@ -4171,7 +4237,6 @@
       <c r="A49" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="3"/>
       <c r="C49" t="s">
         <v>723</v>
       </c>
@@ -4180,6 +4245,9 @@
       </c>
       <c r="E49" t="s">
         <v>382</v>
+      </c>
+      <c r="F49" t="s">
+        <v>478</v>
       </c>
       <c r="H49" t="s">
         <v>504</v>
@@ -4195,7 +4263,6 @@
       <c r="A50" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="3"/>
       <c r="C50" t="s">
         <v>724</v>
       </c>
@@ -4204,6 +4271,9 @@
       </c>
       <c r="E50" t="s">
         <v>383</v>
+      </c>
+      <c r="F50" t="s">
+        <v>478</v>
       </c>
       <c r="H50" t="s">
         <v>504</v>
@@ -4219,7 +4289,6 @@
       <c r="A51" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="3"/>
       <c r="C51" t="s">
         <v>725</v>
       </c>
@@ -4228,6 +4297,9 @@
       </c>
       <c r="E51" t="s">
         <v>384</v>
+      </c>
+      <c r="F51" t="s">
+        <v>478</v>
       </c>
       <c r="H51" t="s">
         <v>504</v>
@@ -4243,7 +4315,7 @@
       <c r="A52" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>167</v>
       </c>
       <c r="C52" t="s">
@@ -4281,7 +4353,6 @@
       <c r="A53" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="3"/>
       <c r="C53" t="s">
         <v>726</v>
       </c>
@@ -4290,6 +4361,9 @@
       </c>
       <c r="E53" t="s">
         <v>386</v>
+      </c>
+      <c r="F53" t="s">
+        <v>482</v>
       </c>
       <c r="H53" t="s">
         <v>504</v>
@@ -4305,7 +4379,7 @@
       <c r="A54" t="s">
         <v>64</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>168</v>
       </c>
       <c r="C54" t="s">
@@ -4343,7 +4417,6 @@
       <c r="A55" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="3"/>
       <c r="C55" t="s">
         <v>727</v>
       </c>
@@ -4352,6 +4425,9 @@
       </c>
       <c r="E55" t="s">
         <v>388</v>
+      </c>
+      <c r="F55" t="s">
+        <v>478</v>
       </c>
       <c r="H55" t="s">
         <v>504</v>
@@ -4367,7 +4443,6 @@
       <c r="A56" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="3"/>
       <c r="C56" t="s">
         <v>728</v>
       </c>
@@ -4376,6 +4451,9 @@
       </c>
       <c r="E56" t="s">
         <v>389</v>
+      </c>
+      <c r="F56" t="s">
+        <v>478</v>
       </c>
       <c r="H56" t="s">
         <v>504</v>
@@ -4391,7 +4469,6 @@
       <c r="A57" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="3"/>
       <c r="C57" t="s">
         <v>729</v>
       </c>
@@ -4400,6 +4477,9 @@
       </c>
       <c r="E57" t="s">
         <v>390</v>
+      </c>
+      <c r="F57" t="s">
+        <v>478</v>
       </c>
       <c r="H57" t="s">
         <v>504</v>
@@ -4415,7 +4495,7 @@
       <c r="A58" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>169</v>
       </c>
       <c r="C58" t="s">
@@ -4453,7 +4533,6 @@
       <c r="A59" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="3"/>
       <c r="C59" t="s">
         <v>730</v>
       </c>
@@ -4462,6 +4541,9 @@
       </c>
       <c r="E59" t="s">
         <v>392</v>
+      </c>
+      <c r="F59" t="s">
+        <v>480</v>
       </c>
       <c r="H59" t="s">
         <v>504</v>
@@ -4477,7 +4559,6 @@
       <c r="A60" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="3"/>
       <c r="C60" t="s">
         <v>731</v>
       </c>
@@ -4486,6 +4567,9 @@
       </c>
       <c r="E60" t="s">
         <v>393</v>
+      </c>
+      <c r="F60" t="s">
+        <v>480</v>
       </c>
       <c r="H60" t="s">
         <v>504</v>
@@ -4501,7 +4585,6 @@
       <c r="A61" t="s">
         <v>71</v>
       </c>
-      <c r="B61" s="3"/>
       <c r="C61" t="s">
         <v>732</v>
       </c>
@@ -4510,6 +4593,9 @@
       </c>
       <c r="E61" t="s">
         <v>394</v>
+      </c>
+      <c r="F61" t="s">
+        <v>480</v>
       </c>
       <c r="H61" t="s">
         <v>504</v>
@@ -4525,7 +4611,6 @@
       <c r="A62" t="s">
         <v>72</v>
       </c>
-      <c r="B62" s="3"/>
       <c r="C62" t="s">
         <v>733</v>
       </c>
@@ -4534,6 +4619,9 @@
       </c>
       <c r="E62" t="s">
         <v>395</v>
+      </c>
+      <c r="F62" t="s">
+        <v>480</v>
       </c>
       <c r="H62" t="s">
         <v>504</v>
@@ -4549,7 +4637,7 @@
       <c r="A63" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>170</v>
       </c>
       <c r="C63" t="s">
@@ -4584,7 +4672,6 @@
       <c r="A64" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="3"/>
       <c r="C64" t="s">
         <v>734</v>
       </c>
@@ -4593,6 +4680,9 @@
       </c>
       <c r="E64" t="s">
         <v>397</v>
+      </c>
+      <c r="F64" t="s">
+        <v>480</v>
       </c>
       <c r="H64" t="s">
         <v>504</v>
@@ -4608,7 +4698,6 @@
       <c r="A65" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="3"/>
       <c r="C65" t="s">
         <v>735</v>
       </c>
@@ -4617,6 +4706,9 @@
       </c>
       <c r="E65" t="s">
         <v>398</v>
+      </c>
+      <c r="F65" t="s">
+        <v>480</v>
       </c>
       <c r="H65" t="s">
         <v>504</v>
@@ -4632,7 +4724,6 @@
       <c r="A66" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="3"/>
       <c r="C66" t="s">
         <v>736</v>
       </c>
@@ -4641,6 +4732,9 @@
       </c>
       <c r="E66" t="s">
         <v>399</v>
+      </c>
+      <c r="F66" t="s">
+        <v>480</v>
       </c>
       <c r="H66" t="s">
         <v>504</v>
@@ -4656,7 +4750,6 @@
       <c r="A67" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="3"/>
       <c r="C67" t="s">
         <v>737</v>
       </c>
@@ -4665,6 +4758,9 @@
       </c>
       <c r="E67" t="s">
         <v>400</v>
+      </c>
+      <c r="F67" t="s">
+        <v>480</v>
       </c>
       <c r="H67" t="s">
         <v>504</v>
@@ -4680,7 +4776,6 @@
       <c r="A68" t="s">
         <v>78</v>
       </c>
-      <c r="B68" s="3"/>
       <c r="C68" t="s">
         <v>738</v>
       </c>
@@ -4689,6 +4784,9 @@
       </c>
       <c r="E68" t="s">
         <v>401</v>
+      </c>
+      <c r="F68" t="s">
+        <v>480</v>
       </c>
       <c r="H68" t="s">
         <v>504</v>
@@ -4704,7 +4802,6 @@
       <c r="A69" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="3"/>
       <c r="C69" t="s">
         <v>739</v>
       </c>
@@ -4713,6 +4810,9 @@
       </c>
       <c r="E69" t="s">
         <v>402</v>
+      </c>
+      <c r="F69" t="s">
+        <v>480</v>
       </c>
       <c r="H69" t="s">
         <v>504</v>
@@ -4728,7 +4828,6 @@
       <c r="A70" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="3"/>
       <c r="C70" t="s">
         <v>740</v>
       </c>
@@ -4737,6 +4836,9 @@
       </c>
       <c r="E70" t="s">
         <v>403</v>
+      </c>
+      <c r="F70" t="s">
+        <v>480</v>
       </c>
       <c r="H70" t="s">
         <v>504</v>
@@ -4752,7 +4854,7 @@
       <c r="A71" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" t="s">
         <v>171</v>
       </c>
       <c r="C71" t="s">
@@ -4787,7 +4889,6 @@
       <c r="A72" t="s">
         <v>82</v>
       </c>
-      <c r="B72" s="3"/>
       <c r="C72" t="s">
         <v>741</v>
       </c>
@@ -4796,6 +4897,9 @@
       </c>
       <c r="E72" t="s">
         <v>405</v>
+      </c>
+      <c r="F72" t="s">
+        <v>479</v>
       </c>
       <c r="H72" t="s">
         <v>504</v>
@@ -4811,7 +4915,6 @@
       <c r="A73" t="s">
         <v>83</v>
       </c>
-      <c r="B73" s="3"/>
       <c r="C73" t="s">
         <v>742</v>
       </c>
@@ -4820,6 +4923,9 @@
       </c>
       <c r="E73" t="s">
         <v>406</v>
+      </c>
+      <c r="F73" t="s">
+        <v>479</v>
       </c>
       <c r="H73" t="s">
         <v>504</v>
@@ -4835,7 +4941,7 @@
       <c r="A74" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" t="s">
         <v>172</v>
       </c>
       <c r="C74" t="s">
@@ -4873,7 +4979,6 @@
       <c r="A75" t="s">
         <v>85</v>
       </c>
-      <c r="B75" s="3"/>
       <c r="C75" t="s">
         <v>743</v>
       </c>
@@ -4882,6 +4987,9 @@
       </c>
       <c r="E75" t="s">
         <v>408</v>
+      </c>
+      <c r="F75" t="s">
+        <v>482</v>
       </c>
       <c r="H75" t="s">
         <v>504</v>
@@ -4897,7 +5005,7 @@
       <c r="A76" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" t="s">
         <v>173</v>
       </c>
       <c r="C76" t="s">
@@ -4935,7 +5043,6 @@
       <c r="A77" t="s">
         <v>87</v>
       </c>
-      <c r="B77" s="3"/>
       <c r="C77" t="s">
         <v>744</v>
       </c>
@@ -4944,6 +5051,9 @@
       </c>
       <c r="E77" t="s">
         <v>410</v>
+      </c>
+      <c r="F77" t="s">
+        <v>483</v>
       </c>
       <c r="H77" t="s">
         <v>504</v>
@@ -4959,7 +5069,6 @@
       <c r="A78" t="s">
         <v>88</v>
       </c>
-      <c r="B78" s="3"/>
       <c r="C78" t="s">
         <v>745</v>
       </c>
@@ -4968,6 +5077,9 @@
       </c>
       <c r="E78" t="s">
         <v>411</v>
+      </c>
+      <c r="F78" t="s">
+        <v>483</v>
       </c>
       <c r="H78" t="s">
         <v>504</v>
@@ -4983,7 +5095,7 @@
       <c r="A79" t="s">
         <v>89</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" t="s">
         <v>174</v>
       </c>
       <c r="C79" t="s">
@@ -5018,7 +5130,6 @@
       <c r="A80" t="s">
         <v>90</v>
       </c>
-      <c r="B80" s="3"/>
       <c r="C80" t="s">
         <v>746</v>
       </c>
@@ -5027,6 +5138,9 @@
       </c>
       <c r="E80" t="s">
         <v>413</v>
+      </c>
+      <c r="F80" t="s">
+        <v>479</v>
       </c>
       <c r="H80" t="s">
         <v>504</v>
@@ -5042,7 +5156,6 @@
       <c r="A81" t="s">
         <v>91</v>
       </c>
-      <c r="B81" s="3"/>
       <c r="C81" t="s">
         <v>747</v>
       </c>
@@ -5051,6 +5164,9 @@
       </c>
       <c r="E81" t="s">
         <v>414</v>
+      </c>
+      <c r="F81" t="s">
+        <v>479</v>
       </c>
       <c r="H81" t="s">
         <v>504</v>
@@ -5066,7 +5182,7 @@
       <c r="A82" t="s">
         <v>92</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" t="s">
         <v>175</v>
       </c>
       <c r="C82" t="s">
@@ -5104,7 +5220,6 @@
       <c r="A83" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="3"/>
       <c r="C83" t="s">
         <v>748</v>
       </c>
@@ -5113,6 +5228,9 @@
       </c>
       <c r="E83" t="s">
         <v>416</v>
+      </c>
+      <c r="F83" t="s">
+        <v>482</v>
       </c>
       <c r="H83" t="s">
         <v>504</v>
@@ -5128,7 +5246,7 @@
       <c r="A84" t="s">
         <v>94</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" t="s">
         <v>176</v>
       </c>
       <c r="C84" t="s">
@@ -5166,7 +5284,6 @@
       <c r="A85" t="s">
         <v>95</v>
       </c>
-      <c r="B85" s="3"/>
       <c r="C85" t="s">
         <v>749</v>
       </c>
@@ -5175,6 +5292,9 @@
       </c>
       <c r="E85" t="s">
         <v>418</v>
+      </c>
+      <c r="F85" t="s">
+        <v>482</v>
       </c>
       <c r="H85" t="s">
         <v>504</v>
@@ -5190,7 +5310,7 @@
       <c r="A86" t="s">
         <v>96</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" t="s">
         <v>177</v>
       </c>
       <c r="C86" t="s">
@@ -5228,7 +5348,6 @@
       <c r="A87" t="s">
         <v>97</v>
       </c>
-      <c r="B87" s="3"/>
       <c r="C87" t="s">
         <v>750</v>
       </c>
@@ -5237,6 +5356,9 @@
       </c>
       <c r="E87" t="s">
         <v>420</v>
+      </c>
+      <c r="F87" t="s">
+        <v>482</v>
       </c>
       <c r="H87" t="s">
         <v>504</v>
@@ -5252,7 +5374,7 @@
       <c r="A88" t="s">
         <v>98</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
         <v>178</v>
       </c>
       <c r="C88" t="s">
@@ -5290,7 +5412,6 @@
       <c r="A89" t="s">
         <v>99</v>
       </c>
-      <c r="B89" s="3"/>
       <c r="C89" t="s">
         <v>751</v>
       </c>
@@ -5299,6 +5420,9 @@
       </c>
       <c r="E89" t="s">
         <v>422</v>
+      </c>
+      <c r="F89" t="s">
+        <v>483</v>
       </c>
       <c r="H89" t="s">
         <v>504</v>
@@ -5314,7 +5438,6 @@
       <c r="A90" t="s">
         <v>100</v>
       </c>
-      <c r="B90" s="3"/>
       <c r="C90" t="s">
         <v>752</v>
       </c>
@@ -5323,6 +5446,9 @@
       </c>
       <c r="E90" t="s">
         <v>423</v>
+      </c>
+      <c r="F90" t="s">
+        <v>483</v>
       </c>
       <c r="H90" t="s">
         <v>504</v>
@@ -5338,7 +5464,6 @@
       <c r="A91" t="s">
         <v>101</v>
       </c>
-      <c r="B91" s="3"/>
       <c r="C91" t="s">
         <v>753</v>
       </c>
@@ -5347,6 +5472,9 @@
       </c>
       <c r="E91" t="s">
         <v>424</v>
+      </c>
+      <c r="F91" t="s">
+        <v>483</v>
       </c>
       <c r="H91" t="s">
         <v>504</v>
@@ -5362,7 +5490,7 @@
       <c r="A92" t="s">
         <v>102</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" t="s">
         <v>179</v>
       </c>
       <c r="C92" t="s">
@@ -5397,7 +5525,6 @@
       <c r="A93" t="s">
         <v>103</v>
       </c>
-      <c r="B93" s="3"/>
       <c r="C93" t="s">
         <v>754</v>
       </c>
@@ -5406,6 +5533,9 @@
       </c>
       <c r="E93" t="s">
         <v>426</v>
+      </c>
+      <c r="F93" t="s">
+        <v>479</v>
       </c>
       <c r="H93" t="s">
         <v>504</v>
@@ -5421,7 +5551,7 @@
       <c r="A94" t="s">
         <v>104</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" t="s">
         <v>180</v>
       </c>
       <c r="C94" t="s">
@@ -5459,7 +5589,6 @@
       <c r="A95" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="3"/>
       <c r="C95" t="s">
         <v>755</v>
       </c>
@@ -5468,6 +5597,9 @@
       </c>
       <c r="E95" t="s">
         <v>428</v>
+      </c>
+      <c r="F95" t="s">
+        <v>36</v>
       </c>
       <c r="H95" t="s">
         <v>504</v>
@@ -5483,7 +5615,6 @@
       <c r="A96" t="s">
         <v>106</v>
       </c>
-      <c r="B96" s="3"/>
       <c r="C96" t="s">
         <v>756</v>
       </c>
@@ -5492,6 +5623,9 @@
       </c>
       <c r="E96" t="s">
         <v>429</v>
+      </c>
+      <c r="F96" t="s">
+        <v>36</v>
       </c>
       <c r="H96" t="s">
         <v>504</v>
@@ -5507,7 +5641,6 @@
       <c r="A97" t="s">
         <v>107</v>
       </c>
-      <c r="B97" s="3"/>
       <c r="C97" t="s">
         <v>757</v>
       </c>
@@ -5516,6 +5649,9 @@
       </c>
       <c r="E97" t="s">
         <v>430</v>
+      </c>
+      <c r="F97" t="s">
+        <v>36</v>
       </c>
       <c r="H97" t="s">
         <v>504</v>
@@ -5531,7 +5667,7 @@
       <c r="A98" t="s">
         <v>108</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" t="s">
         <v>181</v>
       </c>
       <c r="C98" t="s">
@@ -5569,7 +5705,6 @@
       <c r="A99" t="s">
         <v>109</v>
       </c>
-      <c r="B99" s="3"/>
       <c r="C99" t="s">
         <v>758</v>
       </c>
@@ -5578,6 +5713,9 @@
       </c>
       <c r="E99" t="s">
         <v>432</v>
+      </c>
+      <c r="F99" t="s">
+        <v>482</v>
       </c>
       <c r="H99" t="s">
         <v>504</v>
@@ -5593,7 +5731,6 @@
       <c r="A100" t="s">
         <v>110</v>
       </c>
-      <c r="B100" s="3"/>
       <c r="C100" t="s">
         <v>759</v>
       </c>
@@ -5602,6 +5739,9 @@
       </c>
       <c r="E100" t="s">
         <v>433</v>
+      </c>
+      <c r="F100" t="s">
+        <v>482</v>
       </c>
       <c r="H100" t="s">
         <v>504</v>
@@ -5617,7 +5757,6 @@
       <c r="A101" t="s">
         <v>111</v>
       </c>
-      <c r="B101" s="3"/>
       <c r="C101" t="s">
         <v>760</v>
       </c>
@@ -5626,6 +5765,9 @@
       </c>
       <c r="E101" t="s">
         <v>434</v>
+      </c>
+      <c r="F101" t="s">
+        <v>482</v>
       </c>
       <c r="H101" t="s">
         <v>504</v>
@@ -5641,7 +5783,6 @@
       <c r="A102" t="s">
         <v>112</v>
       </c>
-      <c r="B102" s="3"/>
       <c r="C102" t="s">
         <v>761</v>
       </c>
@@ -5650,6 +5791,9 @@
       </c>
       <c r="E102" t="s">
         <v>435</v>
+      </c>
+      <c r="F102" t="s">
+        <v>482</v>
       </c>
       <c r="H102" t="s">
         <v>504</v>
@@ -5665,7 +5809,6 @@
       <c r="A103" t="s">
         <v>113</v>
       </c>
-      <c r="B103" s="3"/>
       <c r="C103" t="s">
         <v>762</v>
       </c>
@@ -5674,6 +5817,9 @@
       </c>
       <c r="E103" t="s">
         <v>436</v>
+      </c>
+      <c r="F103" t="s">
+        <v>482</v>
       </c>
       <c r="H103" t="s">
         <v>504</v>
@@ -5689,7 +5835,6 @@
       <c r="A104" t="s">
         <v>114</v>
       </c>
-      <c r="B104" s="3"/>
       <c r="C104" t="s">
         <v>763</v>
       </c>
@@ -5698,6 +5843,9 @@
       </c>
       <c r="E104" t="s">
         <v>437</v>
+      </c>
+      <c r="F104" t="s">
+        <v>482</v>
       </c>
       <c r="H104" t="s">
         <v>504</v>
@@ -5713,7 +5861,7 @@
       <c r="A105" t="s">
         <v>115</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" t="s">
         <v>182</v>
       </c>
       <c r="C105" t="s">
@@ -5751,7 +5899,6 @@
       <c r="A106" t="s">
         <v>116</v>
       </c>
-      <c r="B106" s="3"/>
       <c r="C106" t="s">
         <v>764</v>
       </c>
@@ -5760,6 +5907,9 @@
       </c>
       <c r="E106" t="s">
         <v>439</v>
+      </c>
+      <c r="F106" t="s">
+        <v>481</v>
       </c>
       <c r="H106" t="s">
         <v>504</v>
@@ -5775,7 +5925,6 @@
       <c r="A107" t="s">
         <v>117</v>
       </c>
-      <c r="B107" s="3"/>
       <c r="C107" t="s">
         <v>765</v>
       </c>
@@ -5784,6 +5933,9 @@
       </c>
       <c r="E107" t="s">
         <v>440</v>
+      </c>
+      <c r="F107" t="s">
+        <v>481</v>
       </c>
       <c r="H107" t="s">
         <v>504</v>
@@ -5799,7 +5951,6 @@
       <c r="A108" t="s">
         <v>118</v>
       </c>
-      <c r="B108" s="3"/>
       <c r="C108" t="s">
         <v>766</v>
       </c>
@@ -5808,6 +5959,9 @@
       </c>
       <c r="E108" t="s">
         <v>441</v>
+      </c>
+      <c r="F108" t="s">
+        <v>481</v>
       </c>
       <c r="H108" t="s">
         <v>504</v>
@@ -5823,7 +5977,7 @@
       <c r="A109" t="s">
         <v>119</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" t="s">
         <v>183</v>
       </c>
       <c r="C109" t="s">
@@ -5861,7 +6015,6 @@
       <c r="A110" t="s">
         <v>120</v>
       </c>
-      <c r="B110" s="3"/>
       <c r="C110" t="s">
         <v>767</v>
       </c>
@@ -5870,6 +6023,9 @@
       </c>
       <c r="E110" t="s">
         <v>443</v>
+      </c>
+      <c r="F110" t="s">
+        <v>482</v>
       </c>
       <c r="H110" t="s">
         <v>504</v>
@@ -5885,7 +6041,7 @@
       <c r="A111" t="s">
         <v>121</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" t="s">
         <v>184</v>
       </c>
       <c r="C111" t="s">
@@ -5923,8 +6079,7 @@
       <c r="A112" t="s">
         <v>122</v>
       </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3" t="s">
+      <c r="C112" t="s">
         <v>796</v>
       </c>
       <c r="D112" t="s">
@@ -5932,6 +6087,9 @@
       </c>
       <c r="E112" t="s">
         <v>445</v>
+      </c>
+      <c r="F112" t="s">
+        <v>482</v>
       </c>
       <c r="H112" t="s">
         <v>504</v>
@@ -5947,7 +6105,7 @@
       <c r="A113" t="s">
         <v>123</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" t="s">
         <v>185</v>
       </c>
       <c r="C113" t="s">
@@ -5985,7 +6143,6 @@
       <c r="A114" t="s">
         <v>124</v>
       </c>
-      <c r="B114" s="3"/>
       <c r="C114" t="s">
         <v>769</v>
       </c>
@@ -5994,6 +6151,9 @@
       </c>
       <c r="E114" t="s">
         <v>447</v>
+      </c>
+      <c r="F114" t="s">
+        <v>482</v>
       </c>
       <c r="H114" t="s">
         <v>504</v>
@@ -6009,7 +6169,6 @@
       <c r="A115" t="s">
         <v>125</v>
       </c>
-      <c r="B115" s="3"/>
       <c r="C115" t="s">
         <v>770</v>
       </c>
@@ -6018,6 +6177,9 @@
       </c>
       <c r="E115" t="s">
         <v>448</v>
+      </c>
+      <c r="F115" t="s">
+        <v>482</v>
       </c>
       <c r="H115" t="s">
         <v>504</v>
@@ -6033,7 +6195,6 @@
       <c r="A116" t="s">
         <v>126</v>
       </c>
-      <c r="B116" s="3"/>
       <c r="C116" t="s">
         <v>771</v>
       </c>
@@ -6042,6 +6203,9 @@
       </c>
       <c r="E116" t="s">
         <v>449</v>
+      </c>
+      <c r="F116" t="s">
+        <v>482</v>
       </c>
       <c r="H116" t="s">
         <v>504</v>
@@ -6057,7 +6221,7 @@
       <c r="A117" t="s">
         <v>127</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" t="s">
         <v>186</v>
       </c>
       <c r="C117" t="s">
@@ -6095,7 +6259,6 @@
       <c r="A118" t="s">
         <v>128</v>
       </c>
-      <c r="B118" s="3"/>
       <c r="C118" t="s">
         <v>772</v>
       </c>
@@ -6104,6 +6267,9 @@
       </c>
       <c r="E118" t="s">
         <v>451</v>
+      </c>
+      <c r="F118" t="s">
+        <v>480</v>
       </c>
       <c r="H118" t="s">
         <v>504</v>
@@ -6119,7 +6285,6 @@
       <c r="A119" t="s">
         <v>129</v>
       </c>
-      <c r="B119" s="3"/>
       <c r="C119" t="s">
         <v>773</v>
       </c>
@@ -6128,6 +6293,9 @@
       </c>
       <c r="E119" t="s">
         <v>452</v>
+      </c>
+      <c r="F119" t="s">
+        <v>480</v>
       </c>
       <c r="H119" t="s">
         <v>504</v>
@@ -6143,7 +6311,6 @@
       <c r="A120" t="s">
         <v>130</v>
       </c>
-      <c r="B120" s="3"/>
       <c r="C120" t="s">
         <v>774</v>
       </c>
@@ -6152,6 +6319,9 @@
       </c>
       <c r="E120" t="s">
         <v>453</v>
+      </c>
+      <c r="F120" t="s">
+        <v>480</v>
       </c>
       <c r="H120" t="s">
         <v>504</v>
@@ -6167,7 +6337,6 @@
       <c r="A121" t="s">
         <v>131</v>
       </c>
-      <c r="B121" s="3"/>
       <c r="C121" t="s">
         <v>775</v>
       </c>
@@ -6176,6 +6345,9 @@
       </c>
       <c r="E121" t="s">
         <v>454</v>
+      </c>
+      <c r="F121" t="s">
+        <v>480</v>
       </c>
       <c r="H121" t="s">
         <v>504</v>
@@ -6191,7 +6363,6 @@
       <c r="A122" t="s">
         <v>132</v>
       </c>
-      <c r="B122" s="3"/>
       <c r="C122" t="s">
         <v>776</v>
       </c>
@@ -6200,6 +6371,9 @@
       </c>
       <c r="E122" t="s">
         <v>455</v>
+      </c>
+      <c r="F122" t="s">
+        <v>480</v>
       </c>
       <c r="H122" t="s">
         <v>504</v>
@@ -6215,7 +6389,7 @@
       <c r="A123" t="s">
         <v>133</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" t="s">
         <v>187</v>
       </c>
       <c r="C123" t="s">
@@ -6253,7 +6427,6 @@
       <c r="A124" t="s">
         <v>134</v>
       </c>
-      <c r="B124" s="3"/>
       <c r="C124" t="s">
         <v>777</v>
       </c>
@@ -6262,6 +6435,9 @@
       </c>
       <c r="E124" t="s">
         <v>457</v>
+      </c>
+      <c r="F124" t="s">
+        <v>484</v>
       </c>
       <c r="H124" t="s">
         <v>504</v>
@@ -6277,7 +6453,6 @@
       <c r="A125" t="s">
         <v>135</v>
       </c>
-      <c r="B125" s="3"/>
       <c r="C125" t="s">
         <v>778</v>
       </c>
@@ -6286,6 +6461,9 @@
       </c>
       <c r="E125" t="s">
         <v>458</v>
+      </c>
+      <c r="F125" t="s">
+        <v>484</v>
       </c>
       <c r="H125" t="s">
         <v>504</v>
@@ -6301,7 +6479,6 @@
       <c r="A126" t="s">
         <v>136</v>
       </c>
-      <c r="B126" s="3"/>
       <c r="C126" t="s">
         <v>779</v>
       </c>
@@ -6310,6 +6487,9 @@
       </c>
       <c r="E126" t="s">
         <v>459</v>
+      </c>
+      <c r="F126" t="s">
+        <v>484</v>
       </c>
       <c r="H126" t="s">
         <v>504</v>
@@ -6325,7 +6505,6 @@
       <c r="A127" t="s">
         <v>137</v>
       </c>
-      <c r="B127" s="3"/>
       <c r="C127" t="s">
         <v>780</v>
       </c>
@@ -6334,6 +6513,9 @@
       </c>
       <c r="E127" t="s">
         <v>460</v>
+      </c>
+      <c r="F127" t="s">
+        <v>484</v>
       </c>
       <c r="H127" t="s">
         <v>504</v>
@@ -6349,7 +6531,6 @@
       <c r="A128" t="s">
         <v>138</v>
       </c>
-      <c r="B128" s="3"/>
       <c r="C128" t="s">
         <v>781</v>
       </c>
@@ -6358,6 +6539,9 @@
       </c>
       <c r="E128" t="s">
         <v>461</v>
+      </c>
+      <c r="F128" t="s">
+        <v>484</v>
       </c>
       <c r="H128" t="s">
         <v>504</v>
@@ -6373,7 +6557,7 @@
       <c r="A129" t="s">
         <v>139</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" t="s">
         <v>188</v>
       </c>
       <c r="C129" t="s">
@@ -6411,7 +6595,6 @@
       <c r="A130" t="s">
         <v>140</v>
       </c>
-      <c r="B130" s="3"/>
       <c r="C130" t="s">
         <v>782</v>
       </c>
@@ -6420,6 +6603,9 @@
       </c>
       <c r="E130" t="s">
         <v>463</v>
+      </c>
+      <c r="F130" t="s">
+        <v>478</v>
       </c>
       <c r="H130" t="s">
         <v>504</v>
@@ -6435,7 +6621,6 @@
       <c r="A131" t="s">
         <v>141</v>
       </c>
-      <c r="B131" s="3"/>
       <c r="C131" t="s">
         <v>783</v>
       </c>
@@ -6444,6 +6629,9 @@
       </c>
       <c r="E131" t="s">
         <v>464</v>
+      </c>
+      <c r="F131" t="s">
+        <v>478</v>
       </c>
       <c r="H131" t="s">
         <v>504</v>
@@ -6459,7 +6647,6 @@
       <c r="A132" t="s">
         <v>142</v>
       </c>
-      <c r="B132" s="3"/>
       <c r="C132" t="s">
         <v>784</v>
       </c>
@@ -6468,6 +6655,9 @@
       </c>
       <c r="E132" t="s">
         <v>465</v>
+      </c>
+      <c r="F132" t="s">
+        <v>478</v>
       </c>
       <c r="H132" t="s">
         <v>504</v>
@@ -6483,7 +6673,6 @@
       <c r="A133" t="s">
         <v>143</v>
       </c>
-      <c r="B133" s="3"/>
       <c r="C133" t="s">
         <v>785</v>
       </c>
@@ -6492,6 +6681,9 @@
       </c>
       <c r="E133" t="s">
         <v>466</v>
+      </c>
+      <c r="F133" t="s">
+        <v>478</v>
       </c>
       <c r="H133" t="s">
         <v>504</v>
@@ -6507,7 +6699,6 @@
       <c r="A134" t="s">
         <v>144</v>
       </c>
-      <c r="B134" s="3"/>
       <c r="C134" t="s">
         <v>786</v>
       </c>
@@ -6516,6 +6707,9 @@
       </c>
       <c r="E134" t="s">
         <v>467</v>
+      </c>
+      <c r="F134" t="s">
+        <v>478</v>
       </c>
       <c r="H134" t="s">
         <v>504</v>
@@ -6531,7 +6725,7 @@
       <c r="A135" t="s">
         <v>145</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" t="s">
         <v>189</v>
       </c>
       <c r="C135" t="s">
@@ -6569,7 +6763,6 @@
       <c r="A136" t="s">
         <v>146</v>
       </c>
-      <c r="B136" s="3"/>
       <c r="C136" t="s">
         <v>787</v>
       </c>
@@ -6578,6 +6771,9 @@
       </c>
       <c r="E136" t="s">
         <v>469</v>
+      </c>
+      <c r="F136" t="s">
+        <v>482</v>
       </c>
       <c r="H136" t="s">
         <v>504</v>
@@ -6593,7 +6789,7 @@
       <c r="A137" t="s">
         <v>147</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" t="s">
         <v>190</v>
       </c>
       <c r="C137" t="s">
@@ -6628,7 +6824,6 @@
       <c r="A138" t="s">
         <v>148</v>
       </c>
-      <c r="B138" s="3"/>
       <c r="C138" t="s">
         <v>788</v>
       </c>
@@ -6637,6 +6832,9 @@
       </c>
       <c r="E138" t="s">
         <v>471</v>
+      </c>
+      <c r="F138" t="s">
+        <v>478</v>
       </c>
       <c r="H138" t="s">
         <v>504</v>
@@ -6652,7 +6850,6 @@
       <c r="A139" t="s">
         <v>149</v>
       </c>
-      <c r="B139" s="3"/>
       <c r="C139" t="s">
         <v>789</v>
       </c>
@@ -6661,6 +6858,9 @@
       </c>
       <c r="E139" t="s">
         <v>472</v>
+      </c>
+      <c r="F139" t="s">
+        <v>478</v>
       </c>
       <c r="H139" t="s">
         <v>504</v>
@@ -6676,7 +6876,7 @@
       <c r="A140" t="s">
         <v>150</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" t="s">
         <v>191</v>
       </c>
       <c r="C140" t="s">
@@ -6711,7 +6911,6 @@
       <c r="A141" t="s">
         <v>151</v>
       </c>
-      <c r="B141" s="3"/>
       <c r="C141" t="s">
         <v>790</v>
       </c>
@@ -6720,6 +6919,9 @@
       </c>
       <c r="E141" t="s">
         <v>474</v>
+      </c>
+      <c r="F141" t="s">
+        <v>482</v>
       </c>
       <c r="H141" t="s">
         <v>504</v>
@@ -6735,7 +6937,6 @@
       <c r="A142" t="s">
         <v>152</v>
       </c>
-      <c r="B142" s="3"/>
       <c r="C142" t="s">
         <v>791</v>
       </c>
@@ -6744,6 +6945,9 @@
       </c>
       <c r="E142" t="s">
         <v>475</v>
+      </c>
+      <c r="F142" t="s">
+        <v>482</v>
       </c>
       <c r="H142" t="s">
         <v>504</v>
@@ -6759,7 +6963,6 @@
       <c r="A143" t="s">
         <v>153</v>
       </c>
-      <c r="B143" s="3"/>
       <c r="C143" t="s">
         <v>792</v>
       </c>
@@ -6768,6 +6971,9 @@
       </c>
       <c r="E143" t="s">
         <v>476</v>
+      </c>
+      <c r="F143" t="s">
+        <v>482</v>
       </c>
       <c r="H143" t="s">
         <v>504</v>
@@ -6783,7 +6989,6 @@
       <c r="A144" t="s">
         <v>154</v>
       </c>
-      <c r="B144" s="3"/>
       <c r="C144" t="s">
         <v>793</v>
       </c>
@@ -6792,6 +6997,9 @@
       </c>
       <c r="E144" t="s">
         <v>477</v>
+      </c>
+      <c r="F144" t="s">
+        <v>482</v>
       </c>
       <c r="H144" t="s">
         <v>504</v>
